--- a/outputs/fft-o__Bacteroidales_pruned.xlsx
+++ b/outputs/fft-o__Bacteroidales_pruned.xlsx
@@ -1,60 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="g__C941_wrapperSH" sheetId="1" r:id="rId1"/>
+    <sheet name="g__C941_wrapperSH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="g__Ruminococcus_E_wrapper-SH" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>f__Bacteroidaceae</t>
-  </si>
-  <si>
-    <t>f__UBA932</t>
-  </si>
-  <si>
-    <t>f__Muribaculaceae</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,21 +68,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,410 +447,1096 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>-0.9718744222511516</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.6954024769230283</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>-0.6585855116493883</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>0.06405825953505917</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0.1867915539046246</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>-1.248030042631763</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>-0.85267002724381</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.5801554740576365</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>-0.8717029508234583</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>0.2490564395096546</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>-0.08568198132440048</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>-1.168075391221003</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>-0.6950327859821349</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.3268148558624768</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>-0.5449288334148491</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>-0.6507529698016736</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.8731885801936856</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>-1.30431764686294</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>-0.6555775350723863</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.7892564370501086</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>-1.202970985880816</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>-0.3173066659142825</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>-0.02720678361392578</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>-0.458629132570763</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>-0.3577855010560332</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>0.362725030919658</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>-1.139343528734144</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>-1.050312674895434</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>0.7869080737800714</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>-0.538008364422762</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>-0.8999099703403186</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>0.7442490491451663</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>-0.6203014868557002</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>-1.232806024192879</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>0.4632049701462197</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>-0.1711877143019698</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>-1.157439179562757</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>1.352706345769734</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>-1.44120117536243</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>-0.8201755077937116</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>0.4756521537730928</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>-0.5874524121796962</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>-0.4016760534756796</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>0.5795892891452533</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>-0.9598837305091127</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>-0.7796491193889957</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>0.6045168748682042</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>-0.8847218985447299</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>-0.8494139545636431</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>0.3697363147669641</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>-0.3504784489526025</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>-1.02248567438738</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>0.7816711960363504</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>-0.7894092329708499</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>-1.09364500416774</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>1.221195818867983</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>-0.9451007890194816</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>-0.223303675087783</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>-0.2654587358632791</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>-0.3919991611533089</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>-1.226012953230975</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0.8928090418751734</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>-0.5606850976657436</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>-0.9589324247107556</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>0.5101302123242087</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>-0.3882508804318873</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>-0.3426089831358792</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>0.5855149270641692</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>-1.32687882557936</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>-0.3669092551253257</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>0.3950012674910751</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>-0.8336137397639706</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>-0.45915108664619</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>0.2323081571838803</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>-0.9961279799343408</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>-0.3151829394256184</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>0.3128654522503396</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>-0.8880847298741714</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>-0.6910836183213768</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>0.6898350661842145</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>-0.862782873008564</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>-1.080871527731489</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>0.6656006602985841</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>-0.441362048538286</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>-1.05130920147394</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>0.871401828370679</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>-0.7815457069751384</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>-0.7914360839968545</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>0.4468818846212166</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>-0.4788187275989403</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>-0.8016045664482002</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>-0.006819588516100257</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0.01086296673001</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>-0.9453632842176765</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>0.6508134135376519</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>-0.6484333027811303</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>-1.020962331187518</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>1.259480814398816</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>-1.179956937801394</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="n">
         <v>-0.3882577943742793</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>0.5195176268828612</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>-1.063960479979286</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>-0.2647121505955393</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>0.3897737412642863</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>-1.185162045674609</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-0.7464982513166663</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.4142138793564149</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.9495188923878528</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.6091388111561598</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.3990631960201521</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.9384435268454249</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.471315429352386</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.0319382818955571</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6652610807608632</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.5895907299155244</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.5987857523450355</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.6483883281351974</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-1.054866956685073</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.6646683052124197</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.5876375109504944</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.2704482124292056</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3633858691040703</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.147734309297935</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.4672812318073769</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.6046185823375698</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.014544849187191</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.521712505500092</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.04839809205459199</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.25770050753578</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.7052229760146449</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.5662919695133675</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.4783624935800203</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.716341233165164</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.7401086587007979</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.7962752090420004</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.873431323616348</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.1746561155764919</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.9137354533982415</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.01899627804328815</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.119780891582919</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.5959906102110243</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-0.6970976174775071</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.8553467834303409</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.8426766393654954</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.351412081682938</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.8756266045457027</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.5375969842966132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.2098393254563796</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.4375436764215183</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.097534488803457</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-1.038211757131152</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.3642797381319433</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.7103208609101407</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.9772915352718076</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.2166123177819016</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.012423533344161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-1.465714878764237</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.06201588868452413</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.8477171583996398</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.3657832362106063</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.197945940223027</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.6871703178045356</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.7168706326858856</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.4382028528987534</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.8006506630065199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.2061830459414611</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.249605028112079</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.210798419442494</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.1690685778110195</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.059427775639285</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.5374201470586775</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.5724401516741964</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.649937378879471</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.7017427043497609</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.97210030255014</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.576728490008895</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.65510233135025</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.7538007280102036</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.5381594769242429</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.6068133312396876</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.3712068043503456</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.051845463617323</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5779592500704962</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.3921522603703041</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.7854831935370226</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.9511418484528363</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.3851781495029875</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.9440767525014138</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.9653133964006645</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.06859416470596302</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.892355055675302</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.136131580006836</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.9001467957584218</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.3969934047342306</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.7249230322296232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-1.061819759463756</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.2684325205669517</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.5002913563583115</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.048966042460674</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.4491584374712753</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.7143313274251476</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.9689152085461529</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.4062955091826813</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.8067270815298795</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.3806154659137584</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.4768376666981771</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.9051781844358657</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.175420905512123</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.04618095753715597</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.6847865035851239</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.4724226968983079</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.4959766331261234</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.8156603586874784</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-1.156855337194141</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.265884918182122</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.5767398297328185</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.7033062545171653</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.4573457204343812</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.061126255023152</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-1.104234990224072</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.2294636829984259</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.5822805926495996</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.7083643067580632</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.6533682280254836</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.729739820808471</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.6783953839606268</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.5357039572450206</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.7715237425886344</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-1.294448286888555</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1077608043949189</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.759361569973115</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-0.9161881942923569</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.4010290105029941</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.8829261276254063</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-0.6779399215917983</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.2858041116471417</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.937466888524297</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-0.02331602854308949</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.920918104049422</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.7221118807071776</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-1.043489483220269</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.3676271862681819</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.7874369649540851</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-0.8630235164905671</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.07555985618560741</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-1.250976783605474</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-0.3443531907679082</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.5963756260042801</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.9556673455504029</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-0.7857193789806408</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.7413291006030018</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.4507757506936316</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-0.8380602483535179</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.6319362216943321</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.81507681410683</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-0.6745843678747898</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.2566830304308118</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.335487933246557</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-0.9934462299615665</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.1763667060876787</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.8537461221767341</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-0.2347687936494275</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.8161787125456894</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.9472661449071194</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-0.924047310481354</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.3443032229914855</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.7430480472744253</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-0.791928491057263</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.8674565909354254</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0.3272723885378676</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-0.6247571438319275</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.5528717649247041</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.9886682008667999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-0.2759907482011766</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.9170098183076206</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.245581053831968</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-0.5672065053768069</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.4711539046626684</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.8131201525287846</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/outputs/fft-o__Bacteroidales_pruned.xlsx
+++ b/outputs/fft-o__Bacteroidales_pruned.xlsx
@@ -31,6 +31,10 @@
     <sheet name="g__C941_wrapper-SH20" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="g__C941_wrapper-SH21" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="g__C941_wrapper-SH-c" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="g__C941_wrapper-SH22" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="g__C941_wrapper-SH-c1" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="g__C941_wrapper-SH23" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="g__C941_wrapper-SH-c2" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8277,13 +8281,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -8304,7 +8308,7 @@
         <v>0.7601939990927784</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -8319,13 +8323,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -8346,7 +8350,7 @@
         <v>0.5027908787874961</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -8361,13 +8365,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -8382,13 +8386,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -8403,13 +8407,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -8424,13 +8428,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0.9156284002549644</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -8445,13 +8449,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -8466,13 +8470,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -8487,13 +8491,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -8508,13 +8512,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -8529,13 +8533,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -8550,13 +8554,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -8577,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -8592,13 +8596,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -8613,13 +8617,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -8634,13 +8638,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -8655,13 +8659,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -8676,13 +8680,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0.09068564601933804</v>
       </c>
       <c r="D21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -8697,13 +8701,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -8718,13 +8722,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -8739,13 +8743,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -8760,13 +8764,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -8781,13 +8785,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0.5280149502448542</v>
       </c>
       <c r="D26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -8808,7 +8812,7 @@
         <v>0.7282496126011326</v>
       </c>
       <c r="D27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -8823,13 +8827,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -8844,13 +8848,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -8865,13 +8869,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -8886,13 +8890,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -8907,10 +8911,3114 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-11.77064991365607</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.569031643323741</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.893772334583864</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6981184875712405</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.888030033869266</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-7.450751823280592</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-10.54233447642197</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.534740603446946</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.165413443785486</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.923883093226515</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.379645501912714</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-6.857663462320843</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-12.74263956629608</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.471740757664703</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.949308618804961</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-9.731531521318022</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.426933830776401</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-6.8387672060956</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-7.207624215272088</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.297876378522352</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-7.209907947068752</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-10.57541682844611</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.29754503453491</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-3.564181135600138</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2.43238873000256</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.288927217110628</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-7.025062529090888</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-14.24492453221204</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.732240087334143</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-4.1117575498468</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-8.781571274675882</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.500917278657682</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-4.590613099543096</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-15.04033211796783</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.246340827362927</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.666997072919273</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-15.89276420926017</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.940224829915183</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-7.294968584809325</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-12.72316893806738</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.44065982473505</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-3.319380302676965</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-2.172356679488189</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.054780932029603</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-4.272499935692285</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-11.88192696854524</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.977539973938859</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-6.051536867621008</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-13.27558264004629</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.61386923882444</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-3.24117481640684</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-12.05401875500686</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.696585632029629</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-7.076619143946857</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-11.67282928657851</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.444815263507425</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-6.187335148483489</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.4151571320491887</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.988807400323672</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-3.593592395472844</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-17.90941225621241</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.281596980352975</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-2.982551975408762</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-9.100779508466704</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.271587358544016</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2.533699816277757</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-6.798290012401067</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.922606359027858</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-7.425081152297892</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-3.177495494255861</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.636490052138625</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-4.19665287836915</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9142228836658645</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.191082776766987</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-7.666194422450939</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4.087570431236478</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.897992354476259</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-6.448657362147974</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-7.244108083549428</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.543479165730305</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.772888330221288</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-15.41136268641034</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.770560757686864</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-3.243648846815926</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-17.34312253450156</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.185064363768142</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-4.737808204809862</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-6.258879984153328</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.116377263532718</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-5.558969919938615</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-9.09921124455609</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4560669134072931</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-2.892939871369625</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-11.39174421491136</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.860660378261961</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-3.487468605161848</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-18.67853956793012</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8.308646776591639</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-5.021449978020373</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-2.98372942191705</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.145712281325252</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-7.452478126683381</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.7118075135824543</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.483894717329359</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-8.329333000330614</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8490592437856203</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2924214339754057</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9571114418329323</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9489961772381295</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7280334567036466</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1440962432087728</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-3.293243108447888</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.004481283538212</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.875766790667459</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.881683260752303</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.130287145216437</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-8.121407535194823</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-4.704178564349314</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.300062060101656</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5.592528689482421</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.732127760881656</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5156284441414208</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-7.326410242907405</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-3.725640808931273</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.120523578431744</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.720113731149233</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-6.833265937666641</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.671446753727736</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-7.163320184882449</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5.135392318943737</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.998710346227574</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-7.304880156765497</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-5.01197400442733</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6072984276320239</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-3.285790376060666</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-3.355018745133942</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.789543640685556</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-6.578937007727868</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-8.249739232879042</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.234905466320292</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-3.268437657170067</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-3.796516883172661</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.289322925149514</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-6.194168079823592</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-4.063781687844656</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.331767890063725</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.56350294736097</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-11.17812891276079</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.277929327463113</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-9.035720846905319</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-4.530890496900144</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.378341468805424</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-4.627326980355025</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.634835307237521</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.337508475090832</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-5.535298243808557</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.569635203475062</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.372013190706719</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-6.726689540014752</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4.607684720431985</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.794448715383068</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-3.246905845169533</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5.72725787834306</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.402549933003756</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-6.136953739598323</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-6.803809909984963</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.528809807490761</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-6.275349141575256</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.883421102138761</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.308329857292017</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-3.906606046114351</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-9.294538461586587</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.323905538219208</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.319121257419981</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-5.407426888091988</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.383560551342449</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2.804542183684856</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.283589836575696</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.636473773085794</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-8.921980963479479</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.927035751334389</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.21377820369433</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-4.551102340008553</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-2.581055260614055</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7876713991209146</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-8.052895911193787</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.245023826230533</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.256339452777845</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-6.45932747843591</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-4.738431587819741</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.853478183692228</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-5.236629619497299</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-6.808033408441987</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.089537569270255</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-3.671884699581957</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-8.296643330481881</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.797263604550609</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-5.658864527053866</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-5.239628756720805</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.622886452169661</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-4.925660118906763</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-3.013255379829397</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.7623536839720911</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-3.582459111533128</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-4.628722829600318</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.922500150447304</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-4.593793709281924</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-7.465492178096051</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.5762909304982</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-6.934995904506268</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-4.998108795822382</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.506800518056489</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-6.418579010923289</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.3753969047620266</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.721202198012663</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-7.79033246162151</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-0</v>
       </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7578142220707105</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.803649213816012</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8938356995604573</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0</v>
+      </c>
       <c r="C32" t="n">
-        <v>-0</v>
+        <v>0.1188231580139544</v>
       </c>
       <c r="D32" t="n">
         <v>-0</v>
@@ -8991,7 +12099,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0</v>
+        <v>0.3123015476189867</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>

--- a/outputs/fft-o__Bacteroidales_pruned.xlsx
+++ b/outputs/fft-o__Bacteroidales_pruned.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A93AD-A97D-7F4D-BBC7-D6F6054BB635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD2BD3A-7479-BD49-BCCA-4122FBBD15A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__C941_wrapperSH" sheetId="1" r:id="rId1"/>
     <sheet name="g__Ruminococcus_E_wrapper-SH" sheetId="2" r:id="rId2"/>
-    <sheet name="g__C941_wrapper-SH23" sheetId="28" r:id="rId3"/>
-    <sheet name="g__C941_wrapper-SH-c2" sheetId="29" r:id="rId4"/>
+    <sheet name="g__C941_wrapper-SH" sheetId="28" r:id="rId3"/>
+    <sheet name="g__C941_wrapper-SH-c" sheetId="29" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2224,7 +2224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
